--- a/lowe/edd/data/VALL$HWS.xlsx
+++ b/lowe/edd/data/VALL$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1454,14 +1454,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH65"/>
+  <dimension ref="A1:JI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1471,12 +1471,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1504,12 +1504,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2324,11 +2324,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3129,10 +3132,13 @@
         <v>204100</v>
       </c>
       <c r="JH9" s="11">
-        <v>203500</v>
+        <v>203300</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>202600</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3933,10 +3939,13 @@
         <v>188500</v>
       </c>
       <c r="JH10" s="11">
-        <v>188600</v>
+        <v>188500</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>189700</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4739,8 +4748,11 @@
       <c r="JH11" s="11">
         <v>14900</v>
       </c>
+      <c r="JI11" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5543,8 +5555,11 @@
       <c r="JH12" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.3E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6345,10 +6360,13 @@
         <v>136100</v>
       </c>
       <c r="JH13" s="11">
-        <v>137600</v>
+        <v>137400</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>137300</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7151,8 +7169,11 @@
       <c r="JH14" s="11">
         <v>1800</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7953,10 +7974,13 @@
         <v>134300</v>
       </c>
       <c r="JH15" s="11">
-        <v>135800</v>
+        <v>135600</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>135500</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8757,10 +8781,13 @@
         <v>112700</v>
       </c>
       <c r="JH16" s="11">
-        <v>113800</v>
+        <v>113700</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>113300</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9563,8 +9590,11 @@
       <c r="JH17" s="11">
         <v>24200</v>
       </c>
+      <c r="JI17" s="11">
+        <v>24700</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10367,8 +10397,11 @@
       <c r="JH18" s="11">
         <v>11900</v>
       </c>
+      <c r="JI18" s="11">
+        <v>12100</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11171,8 +11204,11 @@
       <c r="JH19" s="11">
         <v>400</v>
       </c>
+      <c r="JI19" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11975,8 +12011,11 @@
       <c r="JH20" s="11">
         <v>11500</v>
       </c>
+      <c r="JI20" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12779,8 +12818,11 @@
       <c r="JH21" s="11">
         <v>12300</v>
       </c>
+      <c r="JI21" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13583,8 +13625,11 @@
       <c r="JH22" s="11">
         <v>7500</v>
       </c>
+      <c r="JI22" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14385,10 +14430,13 @@
         <v>110200</v>
       </c>
       <c r="JH23" s="11">
-        <v>111600</v>
+        <v>111400</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>110800</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15189,10 +15237,13 @@
         <v>88600</v>
       </c>
       <c r="JH24" s="11">
-        <v>89600</v>
+        <v>89500</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>88600</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15995,8 +16046,11 @@
       <c r="JH25" s="11">
         <v>26700</v>
       </c>
+      <c r="JI25" s="11">
+        <v>26300</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16799,8 +16853,11 @@
       <c r="JH26" s="11">
         <v>4100</v>
       </c>
+      <c r="JI26" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17603,8 +17660,11 @@
       <c r="JH27" s="11">
         <v>17400</v>
       </c>
+      <c r="JI27" s="11">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18407,8 +18467,11 @@
       <c r="JH28" s="11">
         <v>3400</v>
       </c>
+      <c r="JI28" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19211,8 +19274,11 @@
       <c r="JH29" s="11">
         <v>1700</v>
       </c>
+      <c r="JI29" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20015,8 +20081,11 @@
       <c r="JH30" s="11">
         <v>3500</v>
       </c>
+      <c r="JI30" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20819,8 +20888,11 @@
       <c r="JH31" s="11">
         <v>5200</v>
       </c>
+      <c r="JI31" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -21623,8 +21695,11 @@
       <c r="JH32" s="11">
         <v>800</v>
       </c>
+      <c r="JI32" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22427,8 +22502,11 @@
       <c r="JH33" s="11">
         <v>4900</v>
       </c>
+      <c r="JI33" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23231,8 +23309,11 @@
       <c r="JH34" s="11">
         <v>3300</v>
       </c>
+      <c r="JI34" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24035,8 +24116,11 @@
       <c r="JH35" s="11">
         <v>9800</v>
       </c>
+      <c r="JI35" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -24839,8 +24923,11 @@
       <c r="JH36" s="11">
         <v>5200</v>
       </c>
+      <c r="JI36" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25643,8 +25730,11 @@
       <c r="JH37" s="11">
         <v>4400</v>
       </c>
+      <c r="JI37" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45</v>
       </c>
@@ -26445,10 +26535,13 @@
         <v>29700</v>
       </c>
       <c r="JH38" s="11">
-        <v>30000</v>
+        <v>29800</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>29500</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27251,8 +27344,11 @@
       <c r="JH39" s="11">
         <v>26800</v>
       </c>
+      <c r="JI39" s="11">
+        <v>26700</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>52</v>
       </c>
@@ -28055,8 +28151,11 @@
       <c r="JH40" s="11">
         <v>13100</v>
       </c>
+      <c r="JI40" s="11">
+        <v>12900</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -28859,8 +28958,11 @@
       <c r="JH41" s="11">
         <v>11400</v>
       </c>
+      <c r="JI41" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>56</v>
       </c>
@@ -29661,10 +29763,13 @@
         <v>10700</v>
       </c>
       <c r="JH42" s="11">
-        <v>10900</v>
+        <v>10800</v>
+      </c>
+      <c r="JI42" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>57</v>
       </c>
@@ -30107,8 +30212,11 @@
       <c r="JH43" s="11">
         <v>10600</v>
       </c>
+      <c r="JI43" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>59</v>
       </c>
@@ -30909,10 +31017,13 @@
         <v>4300</v>
       </c>
       <c r="JH44" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JI44" s="11">
         <v>4300</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -31713,10 +31824,13 @@
         <v>21600</v>
       </c>
       <c r="JH45" s="11">
-        <v>22000</v>
+        <v>21900</v>
+      </c>
+      <c r="JI45" s="11">
+        <v>22200</v>
       </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>61</v>
       </c>
@@ -32519,8 +32633,11 @@
       <c r="JH46" s="11">
         <v>3700</v>
       </c>
+      <c r="JI46" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33321,10 +33438,13 @@
         <v>17900</v>
       </c>
       <c r="JH47" s="11">
-        <v>18300</v>
+        <v>18200</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>18600</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34125,10 +34245,13 @@
         <v>5300</v>
       </c>
       <c r="JH48" s="11">
-        <v>5300</v>
+        <v>5200</v>
+      </c>
+      <c r="JI48" s="11">
+        <v>5100</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -34931,8 +35054,11 @@
       <c r="JH49" s="11">
         <v>400</v>
       </c>
+      <c r="JI49" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -35733,10 +35859,13 @@
         <v>4900</v>
       </c>
       <c r="JH50" s="11">
-        <v>4900</v>
+        <v>4800</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>4800</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -36539,8 +36668,11 @@
       <c r="JH51" s="11">
         <v>13000</v>
       </c>
+      <c r="JI51" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37343,8 +37475,11 @@
       <c r="JH52" s="11">
         <v>6800</v>
       </c>
+      <c r="JI52" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38147,8 +38282,11 @@
       <c r="JH53" s="11">
         <v>6200</v>
       </c>
+      <c r="JI53" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -38951,8 +39089,11 @@
       <c r="JH54" s="11">
         <v>3200</v>
       </c>
+      <c r="JI54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -39755,8 +39896,11 @@
       <c r="JH55" s="11">
         <v>2500</v>
       </c>
+      <c r="JI55" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -40559,8 +40703,11 @@
       <c r="JH56" s="11">
         <v>500</v>
       </c>
+      <c r="JI56" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>137</v>
       </c>
@@ -40573,7 +40720,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>16</v>
       </c>
@@ -40586,7 +40733,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>138</v>
       </c>
@@ -40599,7 +40746,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>139</v>
       </c>
@@ -40612,7 +40759,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>140</v>
       </c>
@@ -40625,7 +40772,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>141</v>
       </c>
@@ -40638,7 +40785,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>142</v>
       </c>

--- a/lowe/edd/data/VALL$HWS.xlsx
+++ b/lowe/edd/data/VALL$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI65"/>
+  <dimension ref="A1:JJ65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,12 +1471,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1504,12 +1504,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2327,11 +2327,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3135,10 +3138,13 @@
         <v>203300</v>
       </c>
       <c r="JI9" s="11">
-        <v>202600</v>
+        <v>202300</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>202400</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3942,10 +3948,13 @@
         <v>188500</v>
       </c>
       <c r="JI10" s="11">
-        <v>189700</v>
+        <v>189500</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>190000</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4749,10 +4758,13 @@
         <v>14900</v>
       </c>
       <c r="JI11" s="11">
-        <v>12800</v>
+        <v>12900</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5556,10 +5568,13 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>6.3E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6363,10 +6378,13 @@
         <v>137400</v>
       </c>
       <c r="JI13" s="11">
-        <v>137300</v>
+        <v>136800</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>137700</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7172,8 +7190,11 @@
       <c r="JI14" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7977,10 +7998,13 @@
         <v>135600</v>
       </c>
       <c r="JI15" s="11">
-        <v>135500</v>
+        <v>135000</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>135900</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8784,10 +8808,13 @@
         <v>113700</v>
       </c>
       <c r="JI16" s="11">
+        <v>112800</v>
+      </c>
+      <c r="JJ16" s="11">
         <v>113300</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9591,10 +9618,13 @@
         <v>24200</v>
       </c>
       <c r="JI17" s="11">
-        <v>24700</v>
+        <v>24400</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>24400</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10398,10 +10428,13 @@
         <v>11900</v>
       </c>
       <c r="JI18" s="11">
+        <v>11900</v>
+      </c>
+      <c r="JJ18" s="11">
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11207,8 +11240,11 @@
       <c r="JI19" s="11">
         <v>400</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12012,10 +12048,13 @@
         <v>11500</v>
       </c>
       <c r="JI20" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JJ20" s="11">
         <v>11700</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12819,10 +12858,13 @@
         <v>12300</v>
       </c>
       <c r="JI21" s="11">
-        <v>12600</v>
+        <v>12500</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13628,8 +13670,11 @@
       <c r="JI22" s="11">
         <v>7600</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14433,10 +14478,13 @@
         <v>111400</v>
       </c>
       <c r="JI23" s="11">
-        <v>110800</v>
+        <v>110600</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>111500</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15240,10 +15288,13 @@
         <v>89500</v>
       </c>
       <c r="JI24" s="11">
-        <v>88600</v>
+        <v>88400</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>88900</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16049,8 +16100,11 @@
       <c r="JI25" s="11">
         <v>26300</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>26700</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16856,8 +16910,11 @@
       <c r="JI26" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17663,8 +17720,11 @@
       <c r="JI27" s="11">
         <v>17000</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18470,8 +18530,11 @@
       <c r="JI28" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19275,10 +19338,13 @@
         <v>1700</v>
       </c>
       <c r="JI29" s="11">
-        <v>1700</v>
+        <v>1600</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20084,8 +20150,11 @@
       <c r="JI30" s="11">
         <v>3500</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20891,8 +20960,11 @@
       <c r="JI31" s="11">
         <v>5200</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -21698,8 +21770,11 @@
       <c r="JI32" s="11">
         <v>800</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22505,8 +22580,11 @@
       <c r="JI33" s="11">
         <v>4900</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23312,8 +23390,11 @@
       <c r="JI34" s="11">
         <v>3300</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24119,8 +24200,11 @@
       <c r="JI35" s="11">
         <v>9900</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -24926,8 +25010,11 @@
       <c r="JI36" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25733,8 +25820,11 @@
       <c r="JI37" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45</v>
       </c>
@@ -26538,10 +26628,13 @@
         <v>29800</v>
       </c>
       <c r="JI38" s="11">
-        <v>29500</v>
+        <v>29700</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>29900</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27347,8 +27440,11 @@
       <c r="JI39" s="11">
         <v>26700</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>26800</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>52</v>
       </c>
@@ -28152,10 +28248,13 @@
         <v>13100</v>
       </c>
       <c r="JI40" s="11">
-        <v>12900</v>
+        <v>12500</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>12600</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -28959,10 +29058,13 @@
         <v>11400</v>
       </c>
       <c r="JI41" s="11">
-        <v>11000</v>
+        <v>11100</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>11500</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>56</v>
       </c>
@@ -29768,8 +29870,11 @@
       <c r="JI42" s="11">
         <v>10400</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>10800</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>57</v>
       </c>
@@ -30213,10 +30318,13 @@
         <v>10600</v>
       </c>
       <c r="JI43" s="11">
-        <v>10200</v>
+        <v>10400</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>59</v>
       </c>
@@ -31022,8 +31130,11 @@
       <c r="JI44" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -31829,8 +31940,11 @@
       <c r="JI45" s="11">
         <v>22200</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>22600</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>61</v>
       </c>
@@ -32636,8 +32750,11 @@
       <c r="JI46" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33443,8 +33560,11 @@
       <c r="JI47" s="11">
         <v>18600</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>19000</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34250,8 +34370,11 @@
       <c r="JI48" s="11">
         <v>5100</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -35057,8 +35180,11 @@
       <c r="JI49" s="11">
         <v>300</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -35864,8 +35990,11 @@
       <c r="JI50" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -36671,8 +36800,11 @@
       <c r="JI51" s="11">
         <v>13500</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>13700</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37478,8 +37610,11 @@
       <c r="JI52" s="11">
         <v>7200</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>7400</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38285,8 +38420,11 @@
       <c r="JI53" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -39092,8 +39230,11 @@
       <c r="JI54" s="11">
         <v>3200</v>
       </c>
+      <c r="JJ54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -39899,8 +40040,11 @@
       <c r="JI55" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -40706,8 +40850,11 @@
       <c r="JI56" s="11">
         <v>600</v>
       </c>
+      <c r="JJ56" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>137</v>
       </c>
@@ -40720,7 +40867,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>16</v>
       </c>
@@ -40733,7 +40880,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>138</v>
       </c>
@@ -40746,7 +40893,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>139</v>
       </c>
@@ -40759,7 +40906,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>140</v>
       </c>
@@ -40772,7 +40919,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>141</v>
       </c>
@@ -40785,7 +40932,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>142</v>
       </c>

--- a/lowe/edd/data/VALL$HWS.xlsx
+++ b/lowe/edd/data/VALL$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1454,7 +1454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ65"/>
+  <dimension ref="A1:JL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,12 +1471,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1504,12 +1504,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2330,11 +2330,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3141,10 +3147,16 @@
         <v>202300</v>
       </c>
       <c r="JJ9" s="11">
-        <v>202400</v>
+        <v>202600</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>203300</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>203100</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3951,10 +3963,16 @@
         <v>189500</v>
       </c>
       <c r="JJ10" s="11">
-        <v>190000</v>
+        <v>190200</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>192300</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>192600</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4763,8 +4781,14 @@
       <c r="JJ11" s="11">
         <v>12400</v>
       </c>
+      <c r="JK11" s="11">
+        <v>11000</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5573,8 +5597,14 @@
       <c r="JJ12" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6381,10 +6411,16 @@
         <v>136800</v>
       </c>
       <c r="JJ13" s="11">
-        <v>137700</v>
+        <v>138000</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>138700</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>138700</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7193,8 +7229,14 @@
       <c r="JJ14" s="11">
         <v>1800</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1400</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8001,10 +8043,16 @@
         <v>135000</v>
       </c>
       <c r="JJ15" s="11">
-        <v>135900</v>
+        <v>136200</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>137300</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>137600</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8811,10 +8859,16 @@
         <v>112800</v>
       </c>
       <c r="JJ16" s="11">
-        <v>113300</v>
+        <v>113400</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>114400</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>114700</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9621,10 +9675,16 @@
         <v>24400</v>
       </c>
       <c r="JJ17" s="11">
-        <v>24400</v>
+        <v>24200</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>24100</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>24000</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10431,10 +10491,16 @@
         <v>11900</v>
       </c>
       <c r="JJ18" s="11">
-        <v>12100</v>
+        <v>11900</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>11900</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>11600</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11243,8 +11309,14 @@
       <c r="JJ19" s="11">
         <v>400</v>
       </c>
+      <c r="JK19" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12051,10 +12123,16 @@
         <v>11500</v>
       </c>
       <c r="JJ20" s="11">
-        <v>11700</v>
+        <v>11500</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>11200</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -12863,8 +12941,14 @@
       <c r="JJ21" s="11">
         <v>12300</v>
       </c>
+      <c r="JK21" s="11">
+        <v>12200</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>12400</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13673,8 +13757,14 @@
       <c r="JJ22" s="11">
         <v>7600</v>
       </c>
+      <c r="JK22" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14481,10 +14571,16 @@
         <v>110600</v>
       </c>
       <c r="JJ23" s="11">
-        <v>111500</v>
+        <v>112000</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>113200</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>113600</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15291,10 +15387,16 @@
         <v>88400</v>
       </c>
       <c r="JJ24" s="11">
-        <v>88900</v>
+        <v>89200</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>90300</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>90700</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16103,8 +16205,14 @@
       <c r="JJ25" s="11">
         <v>26700</v>
       </c>
+      <c r="JK25" s="11">
+        <v>27300</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>27600</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16913,8 +17021,14 @@
       <c r="JJ26" s="11">
         <v>4100</v>
       </c>
+      <c r="JK26" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17723,8 +17837,14 @@
       <c r="JJ27" s="11">
         <v>17300</v>
       </c>
+      <c r="JK27" s="11">
+        <v>17900</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>18000</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18533,8 +18653,14 @@
       <c r="JJ28" s="11">
         <v>3500</v>
       </c>
+      <c r="JK28" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19343,8 +19469,14 @@
       <c r="JJ29" s="11">
         <v>1600</v>
       </c>
+      <c r="JK29" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -20153,8 +20285,14 @@
       <c r="JJ30" s="11">
         <v>3600</v>
       </c>
+      <c r="JK30" s="11">
+        <v>3900</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -20963,8 +21101,14 @@
       <c r="JJ31" s="11">
         <v>5300</v>
       </c>
+      <c r="JK31" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -21773,8 +21917,14 @@
       <c r="JJ32" s="11">
         <v>800</v>
       </c>
+      <c r="JK32" s="11">
+        <v>800</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22583,8 +22733,14 @@
       <c r="JJ33" s="11">
         <v>5000</v>
       </c>
+      <c r="JK33" s="11">
+        <v>5000</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23393,8 +23549,14 @@
       <c r="JJ34" s="11">
         <v>3300</v>
       </c>
+      <c r="JK34" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -24201,10 +24363,16 @@
         <v>9900</v>
       </c>
       <c r="JJ35" s="11">
-        <v>9600</v>
+        <v>9700</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>10000</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>38</v>
       </c>
@@ -25011,10 +25179,16 @@
         <v>5300</v>
       </c>
       <c r="JJ36" s="11">
-        <v>5100</v>
+        <v>5400</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>39</v>
       </c>
@@ -25821,10 +25995,16 @@
         <v>4500</v>
       </c>
       <c r="JJ37" s="11">
-        <v>4400</v>
+        <v>4600</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>4600</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45</v>
       </c>
@@ -26633,8 +26813,14 @@
       <c r="JJ38" s="11">
         <v>29900</v>
       </c>
+      <c r="JK38" s="11">
+        <v>30100</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>30600</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>47</v>
       </c>
@@ -27441,10 +27627,16 @@
         <v>26700</v>
       </c>
       <c r="JJ39" s="11">
-        <v>26800</v>
+        <v>26900</v>
+      </c>
+      <c r="JK39" s="11">
+        <v>27100</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>27600</v>
       </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>52</v>
       </c>
@@ -28251,10 +28443,16 @@
         <v>12500</v>
       </c>
       <c r="JJ40" s="11">
-        <v>12600</v>
+        <v>12700</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -29061,10 +29259,16 @@
         <v>11100</v>
       </c>
       <c r="JJ41" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JK41" s="11">
         <v>11500</v>
       </c>
+      <c r="JL41" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>56</v>
       </c>
@@ -29871,10 +30075,16 @@
         <v>10400</v>
       </c>
       <c r="JJ42" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JK42" s="11">
         <v>10800</v>
       </c>
+      <c r="JL42" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>57</v>
       </c>
@@ -30323,8 +30533,14 @@
       <c r="JJ43" s="11">
         <v>10600</v>
       </c>
+      <c r="JK43" s="11">
+        <v>10600</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>10500</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>59</v>
       </c>
@@ -31131,10 +31347,16 @@
         <v>4300</v>
       </c>
       <c r="JJ44" s="11">
-        <v>4300</v>
+        <v>4400</v>
+      </c>
+      <c r="JK44" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>4400</v>
       </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>60</v>
       </c>
@@ -31941,10 +32163,16 @@
         <v>22200</v>
       </c>
       <c r="JJ45" s="11">
-        <v>22600</v>
+        <v>22800</v>
+      </c>
+      <c r="JK45" s="11">
+        <v>22900</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>22900</v>
       </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>61</v>
       </c>
@@ -32751,10 +32979,16 @@
         <v>3600</v>
       </c>
       <c r="JJ46" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JK46" s="11">
         <v>3600</v>
       </c>
+      <c r="JL46" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -33561,10 +33795,16 @@
         <v>18600</v>
       </c>
       <c r="JJ47" s="11">
-        <v>19000</v>
+        <v>19100</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>19300</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>19300</v>
       </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -34373,8 +34613,14 @@
       <c r="JJ48" s="11">
         <v>5300</v>
       </c>
+      <c r="JK48" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -35183,8 +35429,14 @@
       <c r="JJ49" s="11">
         <v>500</v>
       </c>
+      <c r="JK49" s="11">
+        <v>500</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -35993,8 +36245,14 @@
       <c r="JJ50" s="11">
         <v>4800</v>
       </c>
+      <c r="JK50" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -36801,10 +37059,16 @@
         <v>13500</v>
       </c>
       <c r="JJ51" s="11">
-        <v>13700</v>
+        <v>13800</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>14000</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>14000</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -37611,10 +37875,16 @@
         <v>7200</v>
       </c>
       <c r="JJ52" s="11">
-        <v>7400</v>
+        <v>7500</v>
+      </c>
+      <c r="JK52" s="11">
+        <v>7700</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>7700</v>
       </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -38423,8 +38693,14 @@
       <c r="JJ53" s="11">
         <v>6300</v>
       </c>
+      <c r="JK53" s="11">
+        <v>6300</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -39233,8 +39509,14 @@
       <c r="JJ54" s="11">
         <v>3200</v>
       </c>
+      <c r="JK54" s="11">
+        <v>3200</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -40043,8 +40325,14 @@
       <c r="JJ55" s="11">
         <v>2500</v>
       </c>
+      <c r="JK55" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -40853,8 +41141,14 @@
       <c r="JJ56" s="11">
         <v>600</v>
       </c>
+      <c r="JK56" s="11">
+        <v>600</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>137</v>
       </c>
@@ -40867,7 +41161,7 @@
       <c r="H58" s="17"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>16</v>
       </c>
@@ -40880,7 +41174,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>138</v>
       </c>
@@ -40893,7 +41187,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>139</v>
       </c>
@@ -40906,7 +41200,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>140</v>
       </c>
@@ -40919,7 +41213,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>141</v>
       </c>
@@ -40932,7 +41226,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="18"/>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>142</v>
       </c>
